--- a/InputData/elec/GDPbES/Guaranteed Dispatch Perc by Elec Source.xlsx
+++ b/InputData/elec/GDPbES/Guaranteed Dispatch Perc by Elec Source.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Robbie\Dropbox (Energy InNovation)\My Documents\Policy Solutions Project\Poland\Models\eps-1.2.4-us\InputData\elec\GDPbES\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="22995" windowHeight="11055"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="22995" windowHeight="11055" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="GDPbES" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Notes:</t>
   </si>
@@ -29,18 +34,12 @@
     <t>source information here.</t>
   </si>
   <si>
-    <t>coal</t>
-  </si>
-  <si>
     <t>nuclear</t>
   </si>
   <si>
     <t>hydro</t>
   </si>
   <si>
-    <t>wind</t>
-  </si>
-  <si>
     <t>solar PV</t>
   </si>
   <si>
@@ -86,9 +85,6 @@
     <t>begins) when "Boolean Use Non BAU Guaranteed Dispatch Settings" is enabled.</t>
   </si>
   <si>
-    <t>Guaranteed Dispatch Perc</t>
-  </si>
-  <si>
     <t>Some dispatch from peaking plants (natural gas peakers and petroleum-fired plants)</t>
   </si>
   <si>
@@ -99,12 +95,24 @@
   </si>
   <si>
     <t>of the default amount or the amount specified here by the user.</t>
+  </si>
+  <si>
+    <t>hard coal</t>
+  </si>
+  <si>
+    <t>onshore wind</t>
+  </si>
+  <si>
+    <t>lignite</t>
+  </si>
+  <si>
+    <t>offshore wind</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -158,6 +166,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -205,7 +216,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,7 +251,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -451,13 +462,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
@@ -467,17 +478,17 @@
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
@@ -497,42 +508,42 @@
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -546,9 +557,11 @@
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:AJ14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K29" sqref="K29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -556,96 +569,1982 @@
     <col min="2" max="2" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B1" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="B1" s="2">
+        <v>2016</v>
+      </c>
+      <c r="C1">
+        <v>2017</v>
+      </c>
+      <c r="D1">
+        <v>2018</v>
+      </c>
+      <c r="E1">
+        <v>2019</v>
+      </c>
+      <c r="F1">
+        <v>2020</v>
+      </c>
+      <c r="G1">
+        <v>2021</v>
+      </c>
+      <c r="H1">
+        <v>2022</v>
+      </c>
+      <c r="I1">
+        <v>2023</v>
+      </c>
+      <c r="J1">
+        <v>2024</v>
+      </c>
+      <c r="K1">
+        <v>2025</v>
+      </c>
+      <c r="L1">
+        <v>2026</v>
+      </c>
+      <c r="M1">
+        <v>2027</v>
+      </c>
+      <c r="N1">
+        <v>2028</v>
+      </c>
+      <c r="O1">
+        <v>2029</v>
+      </c>
+      <c r="P1">
+        <v>2030</v>
+      </c>
+      <c r="Q1">
+        <v>2031</v>
+      </c>
+      <c r="R1">
+        <v>2032</v>
+      </c>
+      <c r="S1">
+        <v>2033</v>
+      </c>
+      <c r="T1">
+        <v>2034</v>
+      </c>
+      <c r="U1">
+        <v>2035</v>
+      </c>
+      <c r="V1">
+        <v>2036</v>
+      </c>
+      <c r="W1">
+        <v>2037</v>
+      </c>
+      <c r="X1">
+        <v>2038</v>
+      </c>
+      <c r="Y1">
+        <v>2039</v>
+      </c>
+      <c r="Z1">
+        <v>2040</v>
+      </c>
+      <c r="AA1">
+        <v>2041</v>
+      </c>
+      <c r="AB1">
+        <v>2042</v>
+      </c>
+      <c r="AC1">
+        <v>2043</v>
+      </c>
+      <c r="AD1">
+        <v>2044</v>
+      </c>
+      <c r="AE1">
+        <v>2045</v>
+      </c>
+      <c r="AF1">
+        <v>2046</v>
+      </c>
+      <c r="AG1">
+        <v>2047</v>
+      </c>
+      <c r="AH1">
+        <v>2048</v>
+      </c>
+      <c r="AI1">
+        <v>2049</v>
+      </c>
+      <c r="AJ1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>B2</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>C2</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:AJ2" si="0">D2</f>
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3">
+        <v>0.2</v>
+      </c>
+      <c r="C3">
+        <f t="shared" ref="C3:D14" si="1">B3</f>
+        <v>0.2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:AJ3" si="2">D3</f>
+        <v>0.2</v>
+      </c>
+      <c r="F3">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="H3">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="I3">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="J3">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="K3">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="L3">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="M3">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="N3">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="O3">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="P3">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="R3">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="S3">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="T3">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="U3">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="V3">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="W3">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="Z3">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="AA3">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="AB3">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="AC3">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="AD3">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="AE3">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="AF3">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="AG3">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="AH3">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="AI3">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="AJ3">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ref="E4:AJ4" si="3">D4</f>
+        <v>0.5</v>
+      </c>
+      <c r="F4">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="J4">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="K4">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="L4">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="N4">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="O4">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="P4">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="R4">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="S4">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="T4">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="U4">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="V4">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="W4">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="X4">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="Y4">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z4">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AA4">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AB4">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AC4">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AD4">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AE4">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AG4">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AH4">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AI4">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+      <c r="AJ4">
+        <f t="shared" si="3"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B4">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B5">
+        <v>0.5</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ref="E5:AJ5" si="4">D5</f>
+        <v>0.5</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="O5">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="P5">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="R5">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="S5">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="T5">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="U5">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="V5">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="W5">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z5">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="AA5">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="AB5">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="AC5">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="AD5">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="AE5">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="AG5">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="AH5">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="AI5">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+      <c r="AJ5">
+        <f t="shared" si="4"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6">
+        <v>0.8</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ref="E6:AJ6" si="5">D6</f>
+        <v>0.8</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="K6">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="L6">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="P6">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="R6">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="S6">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="T6">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="U6">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="V6">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="W6">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="Y6">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="Z6">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="AA6">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="AB6">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="AC6">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="AD6">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="AE6">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="AG6">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="AH6">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="AI6">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+      <c r="AJ6">
+        <f t="shared" si="5"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B5">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B7">
+        <v>0.8</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ref="E7:AJ7" si="6">D7</f>
+        <v>0.8</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="H7">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="P7">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="R7">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="S7">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="T7">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="U7">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="V7">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="W7">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="Y7">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="Z7">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="AA7">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="AB7">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="AC7">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="AD7">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="AE7">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="AG7">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="AH7">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="AI7">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="AJ7">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B6">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B8">
+        <v>0.8</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:AJ8" si="7">D8</f>
+        <v>0.8</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="H8">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="P8">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="R8">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="S8">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="T8">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="U8">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="V8">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="W8">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="Y8">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="Z8">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="AB8">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="AC8">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="AD8">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="AE8">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="AG8">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="AH8">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="AI8">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+      <c r="AJ8">
+        <f t="shared" si="7"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B7">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
       <c r="B9">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ref="E9:AJ9" si="8">D9</f>
+        <v>0.5</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="W9">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="X9">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="Y9">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z9">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="AA9">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="AC9">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="AE9">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="AG9">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="AH9">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="AI9">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="AJ9">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10">
+        <v>0.8</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ref="E10:AJ10" si="9">D10</f>
+        <v>0.8</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="H10">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="J10">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="K10">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="L10">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="N10">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="P10">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="R10">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="S10">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="T10">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="U10">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="V10">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="W10">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="Y10">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="Z10">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="AA10">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="AC10">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="AE10">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="AG10">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="AH10">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="AI10">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+      <c r="AJ10">
+        <f t="shared" si="9"/>
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ref="E11:AJ11" si="10">D11</f>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AJ11">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="B10">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>18</v>
-      </c>
       <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ref="E12:AJ12" si="11">D12</f>
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="T12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ref="E13:AJ13" si="12">D13</f>
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <f t="shared" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ref="E14:AJ14" si="13">D14</f>
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
     </row>
